--- a/biology/Biologie cellulaire et moléculaire/Taenia_coli/Taenia_coli.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Taenia_coli/Taenia_coli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les tænias coli ou ténias coli (taeniae coli en terminologie anatomique internationale) sont les trois bandelettes longitudinales du côlon (taenia signifiant ruban et coli côlon en latin). Ces épaississements superficiels de la couche  musculaire lisse longitudinale du côlon sont présents sous forme de trois rubans au niveau du côlon ascendant, transverse et descendant mais ne sont plus que deux au niveau du côlon sigmoïde. Convergeant à la racine de l'appendice vermiforme à la base du côlon ascendant ils s'étalent et disparaissent distalement à la jonction rectosigmoïde. 
 Les tænias coli se contractent dans le sens de la longueur pour produire les haustrations coliques (bosselures de la paroi du côlon). 
@@ -489,7 +501,7 @@
 La bandelette mésocolique du côlon (taenia mesocolica coli) est le ténia postéro-médial : présent sur les faces postéro-médiales du cæcum, des côlons ascendant, descendant et sigmoïde, et placé sur la face postérieure du côlon transverse (le long du site de fixation du mésocôlon transverse).
 La bandelette omentale du côlon (taenia omentalis coli) est le ténia postéro-latéral : disposé en arrière du cæcum, des côlons ascendant, descendant et sigmoïde, et sur la surface antérosupérieure du côlon transverse.
 Dans le cæcum et les côlons ascendant, descendant et sigmoïde, les positions de ces bandelettes sont fixes mais changent au niveau du côlon transverse à cause de sa torsion.
-Les tænias coli sont impliqués dans la motilité du côlon. Le contrôle de leur activité musculaire s'effectue grâce à une innervation intrinsèque via le plexus myentérique (ou plexus d'Auerbach) plus développé sous les ténias et par une innervation extrinsèque  parasympathique[1] via des fibres nerveuses ayant pour origine la moelle spinale sacrée (S2-S4)
+Les tænias coli sont impliqués dans la motilité du côlon. Le contrôle de leur activité musculaire s'effectue grâce à une innervation intrinsèque via le plexus myentérique (ou plexus d'Auerbach) plus développé sous les ténias et par une innervation extrinsèque  parasympathique via des fibres nerveuses ayant pour origine la moelle spinale sacrée (S2-S4)
 </t>
         </is>
       </c>
@@ -518,7 +530,9 @@
           <t>Diverticulose</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espaces entre les bandelettes circulaires des ténias sont des points faibles dans l'intestin et sont les sites de diverticulose. La plupart des diverticuloses se produisent dans le côlon sigmoïde car c'est le segment ayant la pression intraluminale la plus élevée. La diverticulose ne se produit pas dans le rectum car les tænias coli deviennent une couche musculaire continue. La diverticulose peut alors devenir une diverticulite si le patient développe une inflammation de la diverticulose. Tout ce spectre de la maladie est appelé maladie diverticulaire.
 </t>
